--- a/excel/finalLabelsmax_16predict.xlsx
+++ b/excel/finalLabelsmax_16predict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aya/github/CEd-nx-wntr/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BCEB34-EC92-D54A-A8D0-06A152366802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B139F6B-98C7-B242-94FB-3A984BCD0FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16labelsActual" sheetId="1" r:id="rId1"/>
@@ -1588,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1702,7 +1702,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2019,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AA206"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="Z187" sqref="Z187"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="W206" sqref="W1:AA206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2166,19 +2165,24 @@
       <c r="U2">
         <v>1</v>
       </c>
-      <c r="W2" s="113">
-        <v>0</v>
-      </c>
-      <c r="X2" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="113">
+      <c r="W2">
+        <f>IF(OR(B2=1,C2=1,D2=1,G2=1,H2=1),4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>IF((OR(F2=1,I2=1,J2=1,L2=1,M2=1)*AND(W2=0)),3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <f>IF((OR(K2=1,N2=1,O2=1,Q2=1,R2=1)*AND(W2=0,X2=0)),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>IF((OR(P2=1,S2=1,T2=1,U2=1)*AND(W2=0,X2=0,Y2=0)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>IF(AND(W2=0,X2=0,Y2=0,Z2=0),11,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2243,19 +2247,24 @@
       <c r="U3">
         <v>1</v>
       </c>
-      <c r="W3" s="113">
-        <v>0</v>
-      </c>
-      <c r="X3" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="113">
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="0">IF(OR(B3=1,C3=1,D3=1,G3=1,H3=1),4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="1">IF((OR(F3=1,I3=1,J3=1,L3=1,M3=1)*AND(W3=0)),3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="2">IF((OR(K3=1,N3=1,O3=1,Q3=1,R3=1)*AND(W3=0,X3=0)),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z66" si="3">IF((OR(P3=1,S3=1,T3=1,U3=1)*AND(W3=0,X3=0,Y3=0)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA66" si="4">IF(AND(W3=0,X3=0,Y3=0,Z3=0),11,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2320,19 +2329,24 @@
       <c r="U4">
         <v>1</v>
       </c>
-      <c r="W4" s="113">
-        <v>0</v>
-      </c>
-      <c r="X4" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="113">
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2397,19 +2411,24 @@
       <c r="U5">
         <v>1</v>
       </c>
-      <c r="W5" s="113">
-        <v>0</v>
-      </c>
-      <c r="X5" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="113">
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2474,19 +2493,24 @@
       <c r="U6">
         <v>1</v>
       </c>
-      <c r="W6" s="113">
-        <v>0</v>
-      </c>
-      <c r="X6" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="113">
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2551,19 +2575,24 @@
       <c r="U7">
         <v>1</v>
       </c>
-      <c r="W7" s="113">
-        <v>0</v>
-      </c>
-      <c r="X7" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="113">
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2628,19 +2657,24 @@
       <c r="U8">
         <v>1</v>
       </c>
-      <c r="W8" s="113">
-        <v>0</v>
-      </c>
-      <c r="X8" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="113">
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2705,19 +2739,24 @@
       <c r="U9">
         <v>1</v>
       </c>
-      <c r="W9" s="113">
-        <v>0</v>
-      </c>
-      <c r="X9" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="113">
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2782,19 +2821,24 @@
       <c r="U10">
         <v>1</v>
       </c>
-      <c r="W10" s="113">
-        <v>0</v>
-      </c>
-      <c r="X10" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="113">
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2859,19 +2903,24 @@
       <c r="U11">
         <v>1</v>
       </c>
-      <c r="W11" s="113">
-        <v>0</v>
-      </c>
-      <c r="X11" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="113">
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2936,19 +2985,24 @@
       <c r="U12">
         <v>1</v>
       </c>
-      <c r="W12" s="113">
-        <v>0</v>
-      </c>
-      <c r="X12" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="113">
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3013,19 +3067,24 @@
       <c r="U13">
         <v>1</v>
       </c>
-      <c r="W13" s="113">
-        <v>0</v>
-      </c>
-      <c r="X13" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="113">
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3090,19 +3149,24 @@
       <c r="U14">
         <v>1</v>
       </c>
-      <c r="W14" s="113">
-        <v>0</v>
-      </c>
-      <c r="X14" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="113">
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3167,19 +3231,24 @@
       <c r="U15">
         <v>1</v>
       </c>
-      <c r="W15" s="113">
-        <v>0</v>
-      </c>
-      <c r="X15" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="113">
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3244,19 +3313,24 @@
       <c r="U16">
         <v>1</v>
       </c>
-      <c r="W16" s="113">
-        <v>0</v>
-      </c>
-      <c r="X16" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="113">
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3321,19 +3395,24 @@
       <c r="U17">
         <v>1</v>
       </c>
-      <c r="W17" s="113">
-        <v>4</v>
-      </c>
-      <c r="X17" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="113">
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3398,19 +3477,24 @@
       <c r="U18">
         <v>1</v>
       </c>
-      <c r="W18" s="113">
-        <v>4</v>
-      </c>
-      <c r="X18" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="113">
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3475,19 +3559,24 @@
       <c r="U19">
         <v>1</v>
       </c>
-      <c r="W19" s="113">
-        <v>4</v>
-      </c>
-      <c r="X19" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="113">
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3552,19 +3641,24 @@
       <c r="U20">
         <v>1</v>
       </c>
-      <c r="W20" s="113">
-        <v>4</v>
-      </c>
-      <c r="X20" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="113">
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3629,19 +3723,24 @@
       <c r="U21">
         <v>1</v>
       </c>
-      <c r="W21" s="113">
-        <v>0</v>
-      </c>
-      <c r="X21" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z21" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="113">
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3706,19 +3805,24 @@
       <c r="U22">
         <v>1</v>
       </c>
-      <c r="W22" s="113">
-        <v>4</v>
-      </c>
-      <c r="X22" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="113">
+      <c r="W22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3783,19 +3887,24 @@
       <c r="U23">
         <v>1</v>
       </c>
-      <c r="W23" s="113">
-        <v>0</v>
-      </c>
-      <c r="X23" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="113">
+      <c r="W23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3860,19 +3969,24 @@
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="W24" s="113">
-        <v>0</v>
-      </c>
-      <c r="X24" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="113">
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3937,19 +4051,24 @@
       <c r="U25">
         <v>1</v>
       </c>
-      <c r="W25" s="113">
-        <v>0</v>
-      </c>
-      <c r="X25" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="113">
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4014,19 +4133,24 @@
       <c r="U26">
         <v>1</v>
       </c>
-      <c r="W26" s="113">
-        <v>0</v>
-      </c>
-      <c r="X26" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="113">
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4091,19 +4215,24 @@
       <c r="U27">
         <v>1</v>
       </c>
-      <c r="W27" s="113">
-        <v>4</v>
-      </c>
-      <c r="X27" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="113">
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4168,19 +4297,24 @@
       <c r="U28">
         <v>1</v>
       </c>
-      <c r="W28" s="113">
-        <v>4</v>
-      </c>
-      <c r="X28" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="113">
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4245,19 +4379,24 @@
       <c r="U29">
         <v>1</v>
       </c>
-      <c r="W29" s="113">
-        <v>4</v>
-      </c>
-      <c r="X29" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="113">
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4322,19 +4461,24 @@
       <c r="U30">
         <v>1</v>
       </c>
-      <c r="W30" s="113">
-        <v>0</v>
-      </c>
-      <c r="X30" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="113">
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z30" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="113">
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4399,19 +4543,24 @@
       <c r="U31">
         <v>1</v>
       </c>
-      <c r="W31" s="113">
-        <v>0</v>
-      </c>
-      <c r="X31" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="113">
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z31" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="113">
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4476,19 +4625,24 @@
       <c r="U32">
         <v>1</v>
       </c>
-      <c r="W32" s="113">
-        <v>0</v>
-      </c>
-      <c r="X32" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="113">
+      <c r="W32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z32" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="113">
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4553,19 +4707,24 @@
       <c r="U33">
         <v>1</v>
       </c>
-      <c r="W33" s="113">
-        <v>0</v>
-      </c>
-      <c r="X33" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="113">
+      <c r="W33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z33" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="113">
+      <c r="Z33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4630,19 +4789,24 @@
       <c r="U34">
         <v>1</v>
       </c>
-      <c r="W34" s="113">
-        <v>0</v>
-      </c>
-      <c r="X34" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="113">
+      <c r="W34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z34" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="113">
+      <c r="Z34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4707,19 +4871,24 @@
       <c r="U35">
         <v>1</v>
       </c>
-      <c r="W35" s="113">
-        <v>0</v>
-      </c>
-      <c r="X35" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="113">
+      <c r="W35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4784,19 +4953,24 @@
       <c r="U36">
         <v>1</v>
       </c>
-      <c r="W36" s="113">
-        <v>0</v>
-      </c>
-      <c r="X36" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="113">
+      <c r="W36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4861,19 +5035,24 @@
       <c r="U37">
         <v>1</v>
       </c>
-      <c r="W37" s="113">
-        <v>0</v>
-      </c>
-      <c r="X37" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="113">
+      <c r="W37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4938,19 +5117,24 @@
       <c r="U38">
         <v>1</v>
       </c>
-      <c r="W38" s="113">
-        <v>0</v>
-      </c>
-      <c r="X38" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="113">
+      <c r="W38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5015,19 +5199,24 @@
       <c r="U39">
         <v>1</v>
       </c>
-      <c r="W39" s="113">
-        <v>0</v>
-      </c>
-      <c r="X39" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="113">
+      <c r="W39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z39" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="113">
+      <c r="Z39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5092,19 +5281,24 @@
       <c r="U40">
         <v>1</v>
       </c>
-      <c r="W40" s="113">
-        <v>0</v>
-      </c>
-      <c r="X40" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="113">
+      <c r="W40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z40" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="113">
+      <c r="Z40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5169,19 +5363,24 @@
       <c r="U41">
         <v>1</v>
       </c>
-      <c r="W41" s="113">
-        <v>0</v>
-      </c>
-      <c r="X41" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="113">
+      <c r="W41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5246,19 +5445,24 @@
       <c r="U42">
         <v>1</v>
       </c>
-      <c r="W42" s="113">
-        <v>0</v>
-      </c>
-      <c r="X42" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="113">
+      <c r="W42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5323,19 +5527,24 @@
       <c r="U43">
         <v>1</v>
       </c>
-      <c r="W43" s="113">
-        <v>0</v>
-      </c>
-      <c r="X43" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="113">
+      <c r="W43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5400,19 +5609,24 @@
       <c r="U44">
         <v>1</v>
       </c>
-      <c r="W44" s="113">
-        <v>0</v>
-      </c>
-      <c r="X44" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="113">
+      <c r="W44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5477,19 +5691,24 @@
       <c r="U45">
         <v>1</v>
       </c>
-      <c r="W45" s="113">
-        <v>0</v>
-      </c>
-      <c r="X45" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="113">
+      <c r="W45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5554,19 +5773,24 @@
       <c r="U46">
         <v>1</v>
       </c>
-      <c r="W46" s="113">
-        <v>0</v>
-      </c>
-      <c r="X46" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="113">
+      <c r="W46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5631,19 +5855,24 @@
       <c r="U47">
         <v>1</v>
       </c>
-      <c r="W47" s="113">
-        <v>0</v>
-      </c>
-      <c r="X47" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="113">
+      <c r="W47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5708,19 +5937,24 @@
       <c r="U48">
         <v>1</v>
       </c>
-      <c r="W48" s="113">
-        <v>0</v>
-      </c>
-      <c r="X48" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="113">
+      <c r="W48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5785,19 +6019,24 @@
       <c r="U49">
         <v>1</v>
       </c>
-      <c r="W49" s="113">
-        <v>0</v>
-      </c>
-      <c r="X49" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="113">
+      <c r="W49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z49" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="113">
+      <c r="Z49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5862,19 +6101,24 @@
       <c r="U50">
         <v>1</v>
       </c>
-      <c r="W50" s="113">
-        <v>0</v>
-      </c>
-      <c r="X50" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="113">
+      <c r="W50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z50" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="113">
+      <c r="Z50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5939,19 +6183,24 @@
       <c r="U51">
         <v>1</v>
       </c>
-      <c r="W51" s="113">
-        <v>0</v>
-      </c>
-      <c r="X51" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="113">
+      <c r="W51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6016,19 +6265,24 @@
       <c r="U52">
         <v>1</v>
       </c>
-      <c r="W52" s="113">
-        <v>0</v>
-      </c>
-      <c r="X52" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="113">
+      <c r="W52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6093,19 +6347,24 @@
       <c r="U53">
         <v>1</v>
       </c>
-      <c r="W53" s="113">
-        <v>0</v>
-      </c>
-      <c r="X53" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="113">
+      <c r="W53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6170,19 +6429,24 @@
       <c r="U54">
         <v>1</v>
       </c>
-      <c r="W54" s="113">
-        <v>0</v>
-      </c>
-      <c r="X54" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="113">
+      <c r="W54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6247,19 +6511,24 @@
       <c r="U55">
         <v>1</v>
       </c>
-      <c r="W55" s="113">
-        <v>0</v>
-      </c>
-      <c r="X55" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="113">
+      <c r="W55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6324,19 +6593,24 @@
       <c r="U56">
         <v>1</v>
       </c>
-      <c r="W56" s="113">
-        <v>0</v>
-      </c>
-      <c r="X56" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="113">
+      <c r="W56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6401,19 +6675,24 @@
       <c r="U57">
         <v>1</v>
       </c>
-      <c r="W57" s="113">
-        <v>0</v>
-      </c>
-      <c r="X57" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z57" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="113">
+      <c r="W57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6478,19 +6757,24 @@
       <c r="U58">
         <v>1</v>
       </c>
-      <c r="W58" s="113">
-        <v>0</v>
-      </c>
-      <c r="X58" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z58" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="113">
+      <c r="W58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6555,19 +6839,24 @@
       <c r="U59">
         <v>1</v>
       </c>
-      <c r="W59" s="113">
-        <v>0</v>
-      </c>
-      <c r="X59" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z59" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="113">
+      <c r="W59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6632,19 +6921,24 @@
       <c r="U60">
         <v>1</v>
       </c>
-      <c r="W60" s="113">
-        <v>0</v>
-      </c>
-      <c r="X60" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z60" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="113">
+      <c r="W60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6709,19 +7003,24 @@
       <c r="U61">
         <v>1</v>
       </c>
-      <c r="W61" s="113">
-        <v>0</v>
-      </c>
-      <c r="X61" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z61" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="113">
+      <c r="W61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6786,19 +7085,24 @@
       <c r="U62">
         <v>1</v>
       </c>
-      <c r="W62" s="113">
-        <v>0</v>
-      </c>
-      <c r="X62" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z62" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="113">
+      <c r="W62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6863,19 +7167,24 @@
       <c r="U63">
         <v>1</v>
       </c>
-      <c r="W63" s="113">
-        <v>0</v>
-      </c>
-      <c r="X63" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z63" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="113">
+      <c r="W63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6940,19 +7249,24 @@
       <c r="U64">
         <v>1</v>
       </c>
-      <c r="W64" s="113">
-        <v>0</v>
-      </c>
-      <c r="X64" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z64" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="113">
+      <c r="W64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7017,19 +7331,24 @@
       <c r="U65">
         <v>1</v>
       </c>
-      <c r="W65" s="113">
-        <v>0</v>
-      </c>
-      <c r="X65" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z65" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="113">
+      <c r="W65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7094,19 +7413,24 @@
       <c r="U66">
         <v>1</v>
       </c>
-      <c r="W66" s="113">
-        <v>0</v>
-      </c>
-      <c r="X66" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z66" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="113">
+      <c r="W66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7171,19 +7495,24 @@
       <c r="U67">
         <v>1</v>
       </c>
-      <c r="W67" s="113">
-        <v>0</v>
-      </c>
-      <c r="X67" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z67" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="113">
+      <c r="W67">
+        <f t="shared" ref="W67:W130" si="5">IF(OR(B67=1,C67=1,D67=1,G67=1,H67=1),4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <f t="shared" ref="X67:X130" si="6">IF((OR(F67=1,I67=1,J67=1,L67=1,M67=1)*AND(W67=0)),3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y130" si="7">IF((OR(K67=1,N67=1,O67=1,Q67=1,R67=1)*AND(W67=0,X67=0)),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" ref="Z67:Z130" si="8">IF((OR(P67=1,S67=1,T67=1,U67=1)*AND(W67=0,X67=0,Y67=0)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA130" si="9">IF(AND(W67=0,X67=0,Y67=0,Z67=0),11,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7248,19 +7577,24 @@
       <c r="U68">
         <v>1</v>
       </c>
-      <c r="W68" s="113">
-        <v>0</v>
-      </c>
-      <c r="X68" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z68" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="113">
+      <c r="W68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7325,19 +7659,24 @@
       <c r="U69">
         <v>1</v>
       </c>
-      <c r="W69" s="113">
-        <v>0</v>
-      </c>
-      <c r="X69" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z69" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="113">
+      <c r="W69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7402,19 +7741,24 @@
       <c r="U70">
         <v>1</v>
       </c>
-      <c r="W70" s="113">
-        <v>4</v>
-      </c>
-      <c r="X70" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="113">
+      <c r="W70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7479,19 +7823,24 @@
       <c r="U71">
         <v>1</v>
       </c>
-      <c r="W71" s="113">
-        <v>0</v>
-      </c>
-      <c r="X71" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z71" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="113">
+      <c r="W71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7556,20 +7905,25 @@
       <c r="U72">
         <v>1</v>
       </c>
-      <c r="W72" s="113">
-        <v>0</v>
-      </c>
-      <c r="X72" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA72" s="113">
-        <v>11</v>
+      <c r="W72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.2">
@@ -7633,20 +7987,25 @@
       <c r="U73">
         <v>1</v>
       </c>
-      <c r="W73" s="113">
-        <v>0</v>
-      </c>
-      <c r="X73" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="113">
-        <v>11</v>
+      <c r="W73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.2">
@@ -7710,20 +8069,25 @@
       <c r="U74">
         <v>1</v>
       </c>
-      <c r="W74" s="113">
-        <v>0</v>
-      </c>
-      <c r="X74" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="113">
-        <v>11</v>
+      <c r="W74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.2">
@@ -7787,19 +8151,24 @@
       <c r="U75">
         <v>1</v>
       </c>
-      <c r="W75" s="113">
-        <v>4</v>
-      </c>
-      <c r="X75" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="113">
+      <c r="W75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7864,19 +8233,24 @@
       <c r="U76">
         <v>1</v>
       </c>
-      <c r="W76" s="113">
-        <v>4</v>
-      </c>
-      <c r="X76" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="113">
+      <c r="W76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -7941,19 +8315,24 @@
       <c r="U77">
         <v>1</v>
       </c>
-      <c r="W77" s="113">
-        <v>0</v>
-      </c>
-      <c r="X77" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z77" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="113">
+      <c r="W77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8018,19 +8397,24 @@
       <c r="U78">
         <v>1</v>
       </c>
-      <c r="W78" s="113">
-        <v>0</v>
-      </c>
-      <c r="X78" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z78" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="113">
+      <c r="W78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8095,19 +8479,24 @@
       <c r="U79">
         <v>1</v>
       </c>
-      <c r="W79" s="113">
-        <v>4</v>
-      </c>
-      <c r="X79" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="113">
+      <c r="W79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8172,20 +8561,25 @@
       <c r="U80">
         <v>1</v>
       </c>
-      <c r="W80" s="113">
-        <v>0</v>
-      </c>
-      <c r="X80" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z80" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="113">
-        <v>11</v>
+      <c r="W80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.2">
@@ -8249,20 +8643,25 @@
       <c r="U81">
         <v>1</v>
       </c>
-      <c r="W81" s="113">
-        <v>0</v>
-      </c>
-      <c r="X81" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="113">
-        <v>11</v>
+      <c r="W81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.2">
@@ -8326,19 +8725,24 @@
       <c r="U82">
         <v>1</v>
       </c>
-      <c r="W82" s="113">
-        <v>4</v>
-      </c>
-      <c r="X82" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="113">
+      <c r="W82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8403,19 +8807,24 @@
       <c r="U83">
         <v>1</v>
       </c>
-      <c r="W83" s="113">
-        <v>4</v>
-      </c>
-      <c r="X83" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="113">
+      <c r="W83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8480,19 +8889,24 @@
       <c r="U84">
         <v>1</v>
       </c>
-      <c r="W84" s="113">
-        <v>4</v>
-      </c>
-      <c r="X84" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="113">
+      <c r="W84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8557,20 +8971,25 @@
       <c r="U85">
         <v>1</v>
       </c>
-      <c r="W85" s="113">
-        <v>0</v>
-      </c>
-      <c r="X85" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="113">
-        <v>11</v>
+      <c r="W85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.2">
@@ -8634,20 +9053,25 @@
       <c r="U86">
         <v>1</v>
       </c>
-      <c r="W86" s="113">
-        <v>0</v>
-      </c>
-      <c r="X86" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="113">
-        <v>11</v>
+      <c r="W86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.2">
@@ -8711,20 +9135,25 @@
       <c r="U87">
         <v>1</v>
       </c>
-      <c r="W87" s="113">
-        <v>0</v>
-      </c>
-      <c r="X87" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="113">
-        <v>11</v>
+      <c r="W87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.2">
@@ -8788,20 +9217,25 @@
       <c r="U88">
         <v>1</v>
       </c>
-      <c r="W88" s="113">
-        <v>0</v>
-      </c>
-      <c r="X88" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z88" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="113">
-        <v>11</v>
+      <c r="W88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.2">
@@ -8865,20 +9299,25 @@
       <c r="U89">
         <v>1</v>
       </c>
-      <c r="W89" s="113">
-        <v>0</v>
-      </c>
-      <c r="X89" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="113">
-        <v>11</v>
+      <c r="W89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.2">
@@ -8942,20 +9381,25 @@
       <c r="U90">
         <v>1</v>
       </c>
-      <c r="W90" s="113">
-        <v>0</v>
-      </c>
-      <c r="X90" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z90" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="113">
-        <v>11</v>
+      <c r="W90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.2">
@@ -9019,19 +9463,24 @@
       <c r="U91">
         <v>1</v>
       </c>
-      <c r="W91" s="113">
-        <v>4</v>
-      </c>
-      <c r="X91" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="113">
+      <c r="W91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9096,19 +9545,24 @@
       <c r="U92">
         <v>1</v>
       </c>
-      <c r="W92" s="113">
-        <v>4</v>
-      </c>
-      <c r="X92" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y92" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z92" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="113">
+      <c r="W92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9173,19 +9627,24 @@
       <c r="U93">
         <v>1</v>
       </c>
-      <c r="W93" s="113">
-        <v>4</v>
-      </c>
-      <c r="X93" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="113">
+      <c r="W93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9250,19 +9709,24 @@
       <c r="U94">
         <v>1</v>
       </c>
-      <c r="W94" s="113">
-        <v>4</v>
-      </c>
-      <c r="X94" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="113">
+      <c r="W94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9327,19 +9791,24 @@
       <c r="U95">
         <v>1</v>
       </c>
-      <c r="W95" s="113">
-        <v>4</v>
-      </c>
-      <c r="X95" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z95" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA95" s="113">
+      <c r="W95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9404,19 +9873,24 @@
       <c r="U96">
         <v>1</v>
       </c>
-      <c r="W96" s="113">
-        <v>4</v>
-      </c>
-      <c r="X96" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="113">
+      <c r="W96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9481,19 +9955,24 @@
       <c r="U97">
         <v>1</v>
       </c>
-      <c r="W97" s="113">
-        <v>4</v>
-      </c>
-      <c r="X97" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z97" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA97" s="113">
+      <c r="W97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9558,19 +10037,24 @@
       <c r="U98">
         <v>1</v>
       </c>
-      <c r="W98" s="113">
-        <v>4</v>
-      </c>
-      <c r="X98" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z98" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="113">
+      <c r="W98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9635,19 +10119,24 @@
       <c r="U99">
         <v>1</v>
       </c>
-      <c r="W99" s="113">
-        <v>4</v>
-      </c>
-      <c r="X99" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z99" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA99" s="113">
+      <c r="W99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9712,19 +10201,24 @@
       <c r="U100">
         <v>1</v>
       </c>
-      <c r="W100" s="113">
-        <v>4</v>
-      </c>
-      <c r="X100" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="113">
+      <c r="W100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9789,19 +10283,24 @@
       <c r="U101">
         <v>1</v>
       </c>
-      <c r="W101" s="113">
-        <v>4</v>
-      </c>
-      <c r="X101" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="113">
+      <c r="W101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9866,19 +10365,24 @@
       <c r="U102">
         <v>1</v>
       </c>
-      <c r="W102" s="113">
-        <v>0</v>
-      </c>
-      <c r="X102" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z102" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="113">
+      <c r="W102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9943,19 +10447,24 @@
       <c r="U103">
         <v>1</v>
       </c>
-      <c r="W103" s="113">
-        <v>4</v>
-      </c>
-      <c r="X103" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z103" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA103" s="113">
+      <c r="W103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10020,19 +10529,24 @@
       <c r="U104">
         <v>1</v>
       </c>
-      <c r="W104" s="113">
-        <v>4</v>
-      </c>
-      <c r="X104" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z104" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA104" s="113">
+      <c r="W104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10097,19 +10611,24 @@
       <c r="U105">
         <v>1</v>
       </c>
-      <c r="W105" s="113">
-        <v>4</v>
-      </c>
-      <c r="X105" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z105" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="113">
+      <c r="W105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10174,19 +10693,24 @@
       <c r="U106">
         <v>1</v>
       </c>
-      <c r="W106" s="113">
-        <v>4</v>
-      </c>
-      <c r="X106" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA106" s="113">
+      <c r="W106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10251,19 +10775,24 @@
       <c r="U107">
         <v>1</v>
       </c>
-      <c r="W107" s="113">
-        <v>4</v>
-      </c>
-      <c r="X107" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="113">
+      <c r="W107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10328,19 +10857,24 @@
       <c r="U108">
         <v>0</v>
       </c>
-      <c r="W108" s="113">
-        <v>0</v>
-      </c>
-      <c r="X108" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="113">
+      <c r="W108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -10405,19 +10939,24 @@
       <c r="U109">
         <v>0</v>
       </c>
-      <c r="W109" s="113">
-        <v>0</v>
-      </c>
-      <c r="X109" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="113">
+      <c r="W109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -10482,19 +11021,24 @@
       <c r="U110">
         <v>0</v>
       </c>
-      <c r="W110" s="113">
-        <v>0</v>
-      </c>
-      <c r="X110" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y110" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z110" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA110" s="113">
+      <c r="W110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -10559,19 +11103,24 @@
       <c r="U111">
         <v>0</v>
       </c>
-      <c r="W111" s="113">
-        <v>0</v>
-      </c>
-      <c r="X111" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z111" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA111" s="113">
+      <c r="W111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -10636,19 +11185,24 @@
       <c r="U112">
         <v>0</v>
       </c>
-      <c r="W112" s="113">
-        <v>0</v>
-      </c>
-      <c r="X112" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y112" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z112" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA112" s="113">
+      <c r="W112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -10713,19 +11267,24 @@
       <c r="U113">
         <v>1</v>
       </c>
-      <c r="W113" s="113">
-        <v>0</v>
-      </c>
-      <c r="X113" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y113" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z113" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA113" s="113">
+      <c r="W113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10790,19 +11349,24 @@
       <c r="U114">
         <v>1</v>
       </c>
-      <c r="W114" s="113">
-        <v>0</v>
-      </c>
-      <c r="X114" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y114" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z114" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA114" s="113">
+      <c r="W114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y114">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10867,19 +11431,24 @@
       <c r="U115">
         <v>1</v>
       </c>
-      <c r="W115" s="113">
-        <v>0</v>
-      </c>
-      <c r="X115" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y115" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z115" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA115" s="113">
+      <c r="W115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Y115">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10944,19 +11513,24 @@
       <c r="U116">
         <v>1</v>
       </c>
-      <c r="W116" s="113">
-        <v>0</v>
-      </c>
-      <c r="X116" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y116" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z116" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA116" s="113">
+      <c r="W116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z116">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11021,19 +11595,24 @@
       <c r="U117">
         <v>0</v>
       </c>
-      <c r="W117" s="113">
-        <v>0</v>
-      </c>
-      <c r="X117" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y117" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z117" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA117" s="113">
+      <c r="W117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11098,19 +11677,24 @@
       <c r="U118">
         <v>0</v>
       </c>
-      <c r="W118" s="113">
-        <v>0</v>
-      </c>
-      <c r="X118" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y118" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z118" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA118" s="113">
+      <c r="W118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11175,19 +11759,24 @@
       <c r="U119">
         <v>0</v>
       </c>
-      <c r="W119" s="113">
-        <v>0</v>
-      </c>
-      <c r="X119" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y119" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z119" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA119" s="113">
+      <c r="W119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11252,19 +11841,24 @@
       <c r="U120">
         <v>0</v>
       </c>
-      <c r="W120" s="113">
-        <v>0</v>
-      </c>
-      <c r="X120" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y120" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z120" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA120" s="113">
+      <c r="W120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11329,19 +11923,24 @@
       <c r="U121">
         <v>0</v>
       </c>
-      <c r="W121" s="113">
-        <v>0</v>
-      </c>
-      <c r="X121" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y121" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z121" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA121" s="113">
+      <c r="W121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11406,19 +12005,24 @@
       <c r="U122">
         <v>0</v>
       </c>
-      <c r="W122" s="113">
-        <v>0</v>
-      </c>
-      <c r="X122" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y122" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z122" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA122" s="113">
+      <c r="W122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11483,19 +12087,24 @@
       <c r="U123">
         <v>0</v>
       </c>
-      <c r="W123" s="113">
-        <v>0</v>
-      </c>
-      <c r="X123" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y123" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z123" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA123" s="113">
+      <c r="W123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11560,19 +12169,24 @@
       <c r="U124">
         <v>0</v>
       </c>
-      <c r="W124" s="113">
-        <v>0</v>
-      </c>
-      <c r="X124" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y124" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z124" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA124" s="113">
+      <c r="W124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11637,19 +12251,24 @@
       <c r="U125">
         <v>0</v>
       </c>
-      <c r="W125" s="113">
-        <v>0</v>
-      </c>
-      <c r="X125" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y125" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z125" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA125" s="113">
+      <c r="W125">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11714,19 +12333,24 @@
       <c r="U126">
         <v>0</v>
       </c>
-      <c r="W126" s="113">
-        <v>0</v>
-      </c>
-      <c r="X126" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y126" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z126" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA126" s="113">
+      <c r="W126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11791,19 +12415,24 @@
       <c r="U127">
         <v>0</v>
       </c>
-      <c r="W127" s="113">
-        <v>0</v>
-      </c>
-      <c r="X127" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y127" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z127" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA127" s="113">
+      <c r="W127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11868,19 +12497,24 @@
       <c r="U128">
         <v>0</v>
       </c>
-      <c r="W128" s="113">
-        <v>0</v>
-      </c>
-      <c r="X128" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA128" s="113">
+      <c r="W128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -11945,19 +12579,24 @@
       <c r="U129">
         <v>0</v>
       </c>
-      <c r="W129" s="113">
-        <v>0</v>
-      </c>
-      <c r="X129" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA129" s="113">
+      <c r="W129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -12022,19 +12661,24 @@
       <c r="U130">
         <v>0</v>
       </c>
-      <c r="W130" s="113">
-        <v>0</v>
-      </c>
-      <c r="X130" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y130" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z130" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA130" s="113">
+      <c r="W130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
@@ -12099,19 +12743,24 @@
       <c r="U131">
         <v>0</v>
       </c>
-      <c r="W131" s="113">
-        <v>0</v>
-      </c>
-      <c r="X131" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y131" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z131" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA131" s="113">
+      <c r="W131">
+        <f t="shared" ref="W131:W194" si="10">IF(OR(B131=1,C131=1,D131=1,G131=1,H131=1),4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <f t="shared" ref="X131:X194" si="11">IF((OR(F131=1,I131=1,J131=1,L131=1,M131=1)*AND(W131=0)),3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <f t="shared" ref="Y131:Y194" si="12">IF((OR(K131=1,N131=1,O131=1,Q131=1,R131=1)*AND(W131=0,X131=0)),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <f t="shared" ref="Z131:Z194" si="13">IF((OR(P131=1,S131=1,T131=1,U131=1)*AND(W131=0,X131=0,Y131=0)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <f t="shared" ref="AA131:AA194" si="14">IF(AND(W131=0,X131=0,Y131=0,Z131=0),11,0)</f>
         <v>11</v>
       </c>
     </row>
@@ -12176,19 +12825,24 @@
       <c r="U132">
         <v>0</v>
       </c>
-      <c r="W132" s="113">
-        <v>0</v>
-      </c>
-      <c r="X132" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y132" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z132" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA132" s="113">
+      <c r="W132">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -12253,19 +12907,24 @@
       <c r="U133">
         <v>1</v>
       </c>
-      <c r="W133" s="113">
-        <v>0</v>
-      </c>
-      <c r="X133" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y133" s="113">
+      <c r="W133">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="Z133" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA133" s="113">
+      <c r="Z133">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12330,19 +12989,24 @@
       <c r="U134">
         <v>1</v>
       </c>
-      <c r="W134" s="113">
-        <v>0</v>
-      </c>
-      <c r="X134" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y134" s="113">
+      <c r="W134">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="Z134" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA134" s="113">
+      <c r="Z134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12407,19 +13071,24 @@
       <c r="U135">
         <v>1</v>
       </c>
-      <c r="W135" s="113">
-        <v>0</v>
-      </c>
-      <c r="X135" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y135" s="113">
+      <c r="W135">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="Z135" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA135" s="113">
+      <c r="Z135">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12484,19 +13153,24 @@
       <c r="U136">
         <v>0</v>
       </c>
-      <c r="W136" s="113">
-        <v>0</v>
-      </c>
-      <c r="X136" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y136" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z136" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA136" s="113">
+      <c r="W136">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -12561,19 +13235,24 @@
       <c r="U137">
         <v>1</v>
       </c>
-      <c r="W137" s="113">
-        <v>0</v>
-      </c>
-      <c r="X137" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y137" s="113">
+      <c r="W137">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="Z137" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA137" s="113">
+      <c r="Z137">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12638,19 +13317,24 @@
       <c r="U138">
         <v>0</v>
       </c>
-      <c r="W138" s="113">
-        <v>0</v>
-      </c>
-      <c r="X138" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y138" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z138" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA138" s="113">
+      <c r="W138">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -12715,19 +13399,24 @@
       <c r="U139">
         <v>0</v>
       </c>
-      <c r="W139" s="113">
-        <v>0</v>
-      </c>
-      <c r="X139" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y139" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z139" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA139" s="113">
+      <c r="W139">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -12792,19 +13481,24 @@
       <c r="U140">
         <v>0</v>
       </c>
-      <c r="W140" s="113">
-        <v>0</v>
-      </c>
-      <c r="X140" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y140" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z140" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA140" s="113">
+      <c r="W140">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y140">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -12869,19 +13563,24 @@
       <c r="U141">
         <v>0</v>
       </c>
-      <c r="W141" s="113">
-        <v>0</v>
-      </c>
-      <c r="X141" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y141" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z141" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA141" s="113">
+      <c r="W141">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -12946,19 +13645,24 @@
       <c r="U142">
         <v>0</v>
       </c>
-      <c r="W142" s="113">
-        <v>0</v>
-      </c>
-      <c r="X142" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y142" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z142" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA142" s="113">
+      <c r="W142">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -13023,19 +13727,24 @@
       <c r="U143">
         <v>0</v>
       </c>
-      <c r="W143" s="113">
-        <v>0</v>
-      </c>
-      <c r="X143" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y143" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z143" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA143" s="113">
+      <c r="W143">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -13100,19 +13809,24 @@
       <c r="U144">
         <v>0</v>
       </c>
-      <c r="W144" s="113">
-        <v>0</v>
-      </c>
-      <c r="X144" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y144" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z144" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA144" s="113">
+      <c r="W144">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y144">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -13177,19 +13891,24 @@
       <c r="U145">
         <v>0</v>
       </c>
-      <c r="W145" s="113">
-        <v>0</v>
-      </c>
-      <c r="X145" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y145" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z145" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA145" s="113">
+      <c r="W145">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -13254,19 +13973,24 @@
       <c r="U146">
         <v>1</v>
       </c>
-      <c r="W146" s="113">
-        <v>0</v>
-      </c>
-      <c r="X146" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y146" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z146" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA146" s="113">
+      <c r="W146">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z146">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13331,19 +14055,24 @@
       <c r="U147">
         <v>1</v>
       </c>
-      <c r="W147" s="113">
-        <v>0</v>
-      </c>
-      <c r="X147" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y147" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z147" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA147" s="113">
+      <c r="W147">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z147">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13408,19 +14137,24 @@
       <c r="U148">
         <v>1</v>
       </c>
-      <c r="W148" s="113">
-        <v>0</v>
-      </c>
-      <c r="X148" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y148" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z148" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA148" s="113">
+      <c r="W148">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z148">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13485,20 +14219,25 @@
       <c r="U149">
         <v>1</v>
       </c>
-      <c r="W149" s="113">
-        <v>0</v>
-      </c>
-      <c r="X149" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y149" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z149" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA149" s="113">
-        <v>11</v>
+      <c r="W149">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA149">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="2:27" x14ac:dyDescent="0.2">
@@ -13562,20 +14301,25 @@
       <c r="U150">
         <v>1</v>
       </c>
-      <c r="W150" s="113">
-        <v>0</v>
-      </c>
-      <c r="X150" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y150" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z150" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA150" s="113">
-        <v>11</v>
+      <c r="W150">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA150">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="2:27" x14ac:dyDescent="0.2">
@@ -13639,20 +14383,25 @@
       <c r="U151">
         <v>1</v>
       </c>
-      <c r="W151" s="113">
-        <v>0</v>
-      </c>
-      <c r="X151" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y151" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z151" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA151" s="113">
-        <v>11</v>
+      <c r="W151">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA151">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="2:27" x14ac:dyDescent="0.2">
@@ -13716,20 +14465,25 @@
       <c r="U152">
         <v>1</v>
       </c>
-      <c r="W152" s="113">
-        <v>0</v>
-      </c>
-      <c r="X152" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y152" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z152" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA152" s="113">
-        <v>11</v>
+      <c r="W152">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA152">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:27" x14ac:dyDescent="0.2">
@@ -13793,20 +14547,25 @@
       <c r="U153">
         <v>1</v>
       </c>
-      <c r="W153" s="113">
-        <v>0</v>
-      </c>
-      <c r="X153" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y153" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z153" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA153" s="113">
-        <v>11</v>
+      <c r="W153">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA153">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="2:27" x14ac:dyDescent="0.2">
@@ -13870,20 +14629,25 @@
       <c r="U154">
         <v>1</v>
       </c>
-      <c r="W154" s="113">
-        <v>0</v>
-      </c>
-      <c r="X154" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y154" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z154" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA154" s="113">
-        <v>11</v>
+      <c r="W154">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA154">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="2:27" x14ac:dyDescent="0.2">
@@ -13947,20 +14711,25 @@
       <c r="U155">
         <v>1</v>
       </c>
-      <c r="W155" s="113">
-        <v>0</v>
-      </c>
-      <c r="X155" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y155" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z155" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA155" s="113">
-        <v>11</v>
+      <c r="W155">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA155">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="2:27" x14ac:dyDescent="0.2">
@@ -14024,20 +14793,25 @@
       <c r="U156">
         <v>1</v>
       </c>
-      <c r="W156" s="113">
-        <v>0</v>
-      </c>
-      <c r="X156" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y156" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z156" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA156" s="113">
-        <v>11</v>
+      <c r="W156">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA156">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="2:27" x14ac:dyDescent="0.2">
@@ -14101,20 +14875,25 @@
       <c r="U157">
         <v>1</v>
       </c>
-      <c r="W157" s="113">
-        <v>0</v>
-      </c>
-      <c r="X157" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y157" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z157" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA157" s="113">
-        <v>11</v>
+      <c r="W157">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA157">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="2:27" x14ac:dyDescent="0.2">
@@ -14178,19 +14957,24 @@
       <c r="U158">
         <v>0</v>
       </c>
-      <c r="W158" s="113">
-        <v>0</v>
-      </c>
-      <c r="X158" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y158" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z158" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA158" s="113">
+      <c r="W158">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -14255,19 +15039,24 @@
       <c r="U159">
         <v>0</v>
       </c>
-      <c r="W159" s="113">
-        <v>0</v>
-      </c>
-      <c r="X159" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y159" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z159" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA159" s="113">
+      <c r="W159">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -14332,19 +15121,24 @@
       <c r="U160">
         <v>0</v>
       </c>
-      <c r="W160" s="113">
-        <v>0</v>
-      </c>
-      <c r="X160" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y160" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z160" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA160" s="113">
+      <c r="W160">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -14409,19 +15203,24 @@
       <c r="U161">
         <v>0</v>
       </c>
-      <c r="W161" s="113">
-        <v>0</v>
-      </c>
-      <c r="X161" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y161" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z161" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA161" s="113">
+      <c r="W161">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -14486,19 +15285,24 @@
       <c r="U162">
         <v>0</v>
       </c>
-      <c r="W162" s="113">
-        <v>0</v>
-      </c>
-      <c r="X162" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y162" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z162" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA162" s="113">
+      <c r="W162">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -14563,19 +15367,24 @@
       <c r="U163">
         <v>1</v>
       </c>
-      <c r="W163" s="113">
-        <v>4</v>
-      </c>
-      <c r="X163" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y163" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z163" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA163" s="113">
+      <c r="W163">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y163">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14640,19 +15449,24 @@
       <c r="U164">
         <v>1</v>
       </c>
-      <c r="W164" s="113">
-        <v>0</v>
-      </c>
-      <c r="X164" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y164" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z164" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA164" s="113">
+      <c r="W164">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z164">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14717,19 +15531,24 @@
       <c r="U165">
         <v>1</v>
       </c>
-      <c r="W165" s="113">
-        <v>0</v>
-      </c>
-      <c r="X165" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y165" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z165" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA165" s="113">
+      <c r="W165">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z165">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14794,19 +15613,24 @@
       <c r="U166">
         <v>0</v>
       </c>
-      <c r="W166" s="113">
-        <v>0</v>
-      </c>
-      <c r="X166" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y166" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z166" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA166" s="113">
+      <c r="W166">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -14871,19 +15695,24 @@
       <c r="U167">
         <v>0</v>
       </c>
-      <c r="W167" s="113">
-        <v>0</v>
-      </c>
-      <c r="X167" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y167" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z167" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA167" s="113">
+      <c r="W167">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -14948,19 +15777,24 @@
       <c r="U168">
         <v>0</v>
       </c>
-      <c r="W168" s="113">
-        <v>0</v>
-      </c>
-      <c r="X168" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y168" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z168" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA168" s="113">
+      <c r="W168">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -15025,19 +15859,24 @@
       <c r="U169">
         <v>0</v>
       </c>
-      <c r="W169" s="113">
-        <v>0</v>
-      </c>
-      <c r="X169" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y169" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z169" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA169" s="113">
+      <c r="W169">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -15102,19 +15941,24 @@
       <c r="U170">
         <v>0</v>
       </c>
-      <c r="W170" s="113">
-        <v>0</v>
-      </c>
-      <c r="X170" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y170" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z170" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA170" s="113">
+      <c r="W170">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -15179,19 +16023,24 @@
       <c r="U171">
         <v>1</v>
       </c>
-      <c r="W171" s="113">
-        <v>4</v>
-      </c>
-      <c r="X171" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y171" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z171" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA171" s="113">
+      <c r="W171">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y171">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15256,19 +16105,24 @@
       <c r="U172">
         <v>1</v>
       </c>
-      <c r="W172" s="113">
-        <v>4</v>
-      </c>
-      <c r="X172" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y172" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z172" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA172" s="113">
+      <c r="W172">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y172">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15333,19 +16187,24 @@
       <c r="U173">
         <v>1</v>
       </c>
-      <c r="W173" s="113">
-        <v>0</v>
-      </c>
-      <c r="X173" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y173" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z173" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA173" s="113">
+      <c r="W173">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y173">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15410,19 +16269,24 @@
       <c r="U174">
         <v>0</v>
       </c>
-      <c r="W174" s="113">
-        <v>0</v>
-      </c>
-      <c r="X174" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y174" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z174" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA174" s="113">
+      <c r="W174">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
     </row>
@@ -15487,19 +16351,24 @@
       <c r="U175">
         <v>1</v>
       </c>
-      <c r="W175" s="113">
-        <v>0</v>
-      </c>
-      <c r="X175" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y175" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z175" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA175" s="113">
+      <c r="W175">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15564,19 +16433,24 @@
       <c r="U176">
         <v>1</v>
       </c>
-      <c r="W176" s="113">
-        <v>0</v>
-      </c>
-      <c r="X176" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y176" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z176" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA176" s="113">
+      <c r="W176">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y176">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15641,19 +16515,24 @@
       <c r="U177">
         <v>1</v>
       </c>
-      <c r="W177" s="113">
-        <v>0</v>
-      </c>
-      <c r="X177" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y177" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z177" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA177" s="113">
+      <c r="W177">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15718,19 +16597,24 @@
       <c r="U178">
         <v>1</v>
       </c>
-      <c r="W178" s="113">
-        <v>0</v>
-      </c>
-      <c r="X178" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y178" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z178" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA178" s="113">
+      <c r="W178">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15795,19 +16679,24 @@
       <c r="U179">
         <v>1</v>
       </c>
-      <c r="W179" s="113">
-        <v>0</v>
-      </c>
-      <c r="X179" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y179" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z179" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA179" s="113">
+      <c r="W179">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y179">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15872,19 +16761,24 @@
       <c r="U180">
         <v>1</v>
       </c>
-      <c r="W180" s="113">
-        <v>0</v>
-      </c>
-      <c r="X180" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y180" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z180" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA180" s="113">
+      <c r="W180">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y180">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -15949,19 +16843,24 @@
       <c r="U181">
         <v>1</v>
       </c>
-      <c r="W181" s="113">
-        <v>0</v>
-      </c>
-      <c r="X181" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y181" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z181" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA181" s="113">
+      <c r="W181">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y181">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16026,19 +16925,24 @@
       <c r="U182">
         <v>1</v>
       </c>
-      <c r="W182" s="113">
-        <v>0</v>
-      </c>
-      <c r="X182" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y182" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z182" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA182" s="113">
+      <c r="W182">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y182">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16103,19 +17007,24 @@
       <c r="U183">
         <v>1</v>
       </c>
-      <c r="W183" s="113">
-        <v>0</v>
-      </c>
-      <c r="X183" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y183" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z183" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA183" s="113">
+      <c r="W183">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y183">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16180,19 +17089,24 @@
       <c r="U184">
         <v>1</v>
       </c>
-      <c r="W184" s="113">
-        <v>0</v>
-      </c>
-      <c r="X184" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y184" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z184" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA184" s="113">
+      <c r="W184">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y184">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16257,19 +17171,24 @@
       <c r="U185">
         <v>1</v>
       </c>
-      <c r="W185" s="113">
-        <v>0</v>
-      </c>
-      <c r="X185" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y185" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z185" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA185" s="113">
+      <c r="W185">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y185">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16334,19 +17253,24 @@
       <c r="U186">
         <v>1</v>
       </c>
-      <c r="W186" s="113">
-        <v>0</v>
-      </c>
-      <c r="X186" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y186" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z186" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA186" s="113">
+      <c r="W186">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y186">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16411,19 +17335,24 @@
       <c r="U187">
         <v>1</v>
       </c>
-      <c r="W187" s="113">
-        <v>0</v>
-      </c>
-      <c r="X187" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y187" s="113">
+      <c r="W187">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="Z187" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA187" s="113">
+      <c r="Z187">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16488,19 +17417,24 @@
       <c r="U188">
         <v>1</v>
       </c>
-      <c r="W188" s="113">
-        <v>0</v>
-      </c>
-      <c r="X188" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y188" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z188" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA188" s="113">
+      <c r="W188">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z188">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16565,19 +17499,24 @@
       <c r="U189">
         <v>1</v>
       </c>
-      <c r="W189" s="113">
-        <v>0</v>
-      </c>
-      <c r="X189" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y189" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z189" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA189" s="113">
+      <c r="W189">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z189">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16642,19 +17581,24 @@
       <c r="U190">
         <v>1</v>
       </c>
-      <c r="W190" s="113">
-        <v>0</v>
-      </c>
-      <c r="X190" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y190" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z190" s="113">
-        <v>1</v>
-      </c>
-      <c r="AA190" s="113">
+      <c r="W190">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z190">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16719,19 +17663,24 @@
       <c r="U191">
         <v>1</v>
       </c>
-      <c r="W191" s="113">
-        <v>0</v>
-      </c>
-      <c r="X191" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y191" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z191" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA191" s="113">
+      <c r="W191">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y191">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16796,19 +17745,24 @@
       <c r="U192">
         <v>1</v>
       </c>
-      <c r="W192" s="113">
-        <v>4</v>
-      </c>
-      <c r="X192" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y192" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z192" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA192" s="113">
+      <c r="W192">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y192">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16873,19 +17827,24 @@
       <c r="U193">
         <v>1</v>
       </c>
-      <c r="W193" s="113">
-        <v>4</v>
-      </c>
-      <c r="X193" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y193" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z193" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA193" s="113">
+      <c r="W193">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y193">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -16950,19 +17909,24 @@
       <c r="U194">
         <v>1</v>
       </c>
-      <c r="W194" s="113">
-        <v>4</v>
-      </c>
-      <c r="X194" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y194" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z194" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA194" s="113">
+      <c r="W194">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Y194">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17027,19 +17991,24 @@
       <c r="U195">
         <v>1</v>
       </c>
-      <c r="W195" s="113">
-        <v>4</v>
-      </c>
-      <c r="X195" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y195" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z195" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA195" s="113">
+      <c r="W195">
+        <f t="shared" ref="W195:W205" si="15">IF(OR(B195=1,C195=1,D195=1,G195=1,H195=1),4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <f t="shared" ref="X195:X205" si="16">IF((OR(F195=1,I195=1,J195=1,L195=1,M195=1)*AND(W195=0)),3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="Y195">
+        <f t="shared" ref="Y195:Y205" si="17">IF((OR(K195=1,N195=1,O195=1,Q195=1,R195=1)*AND(W195=0,X195=0)),2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <f t="shared" ref="Z195:Z205" si="18">IF((OR(P195=1,S195=1,T195=1,U195=1)*AND(W195=0,X195=0,Y195=0)),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <f t="shared" ref="AA195:AA205" si="19">IF(AND(W195=0,X195=0,Y195=0,Z195=0),11,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -17104,19 +18073,24 @@
       <c r="U196">
         <v>1</v>
       </c>
-      <c r="W196" s="113">
-        <v>0</v>
-      </c>
-      <c r="X196" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y196" s="113">
-        <v>2</v>
-      </c>
-      <c r="Z196" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA196" s="113">
+      <c r="W196">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="Y196">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17181,20 +18155,25 @@
       <c r="U197">
         <v>1</v>
       </c>
-      <c r="W197" s="113">
-        <v>0</v>
-      </c>
-      <c r="X197" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y197" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z197" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA197" s="113">
-        <v>11</v>
+      <c r="W197">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA197">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="2:27" x14ac:dyDescent="0.2">
@@ -17258,20 +18237,25 @@
       <c r="U198">
         <v>1</v>
       </c>
-      <c r="W198" s="113">
-        <v>0</v>
-      </c>
-      <c r="X198" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y198" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z198" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA198" s="113">
-        <v>11</v>
+      <c r="W198">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA198">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="2:27" x14ac:dyDescent="0.2">
@@ -17335,20 +18319,25 @@
       <c r="U199">
         <v>1</v>
       </c>
-      <c r="W199" s="113">
-        <v>0</v>
-      </c>
-      <c r="X199" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y199" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z199" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA199" s="113">
-        <v>11</v>
+      <c r="W199">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA199">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="2:27" x14ac:dyDescent="0.2">
@@ -17412,20 +18401,25 @@
       <c r="U200">
         <v>1</v>
       </c>
-      <c r="W200" s="113">
-        <v>0</v>
-      </c>
-      <c r="X200" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y200" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z200" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA200" s="113">
-        <v>11</v>
+      <c r="W200">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA200">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="2:27" x14ac:dyDescent="0.2">
@@ -17489,20 +18483,25 @@
       <c r="U201">
         <v>1</v>
       </c>
-      <c r="W201" s="113">
-        <v>0</v>
-      </c>
-      <c r="X201" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y201" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z201" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA201" s="113">
-        <v>11</v>
+      <c r="W201">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA201">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="2:27" x14ac:dyDescent="0.2">
@@ -17566,20 +18565,25 @@
       <c r="U202">
         <v>1</v>
       </c>
-      <c r="W202" s="113">
-        <v>0</v>
-      </c>
-      <c r="X202" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y202" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z202" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA202" s="113">
-        <v>11</v>
+      <c r="W202">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA202">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="2:27" x14ac:dyDescent="0.2">
@@ -17643,20 +18647,25 @@
       <c r="U203">
         <v>1</v>
       </c>
-      <c r="W203" s="113">
-        <v>0</v>
-      </c>
-      <c r="X203" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y203" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z203" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA203" s="113">
-        <v>11</v>
+      <c r="W203">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA203">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="2:27" x14ac:dyDescent="0.2">
@@ -17720,20 +18729,25 @@
       <c r="U204">
         <v>1</v>
       </c>
-      <c r="W204" s="113">
-        <v>0</v>
-      </c>
-      <c r="X204" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y204" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z204" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA204" s="113">
-        <v>11</v>
+      <c r="W204">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA204">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="2:27" x14ac:dyDescent="0.2">
@@ -17797,37 +18811,47 @@
       <c r="U205">
         <v>0</v>
       </c>
-      <c r="W205" s="113">
-        <v>0</v>
-      </c>
-      <c r="X205" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y205" s="113">
-        <v>0</v>
-      </c>
-      <c r="Z205" s="113">
-        <v>0</v>
-      </c>
-      <c r="AA205" s="113">
+      <c r="W205">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
     </row>
     <row r="206" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="W206" s="113">
-        <v>38</v>
-      </c>
-      <c r="X206" s="113">
-        <v>0</v>
-      </c>
-      <c r="Y206" s="113">
-        <v>69</v>
-      </c>
-      <c r="Z206" s="113">
-        <v>27</v>
-      </c>
-      <c r="AA206" s="113">
-        <v>70</v>
+      <c r="W206">
+        <f>COUNTIF(W2:W205,4)</f>
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <f>COUNTIF(X2:X205,3)</f>
+        <v>93</v>
+      </c>
+      <c r="Y206">
+        <f>COUNTIF(Y2:Y205,2)</f>
+        <v>41</v>
+      </c>
+      <c r="Z206">
+        <f>COUNTIF(Z2:Z205,1)</f>
+        <v>28</v>
+      </c>
+      <c r="AA206">
+        <f>COUNTIF(AA2:AA205,11)</f>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -49464,7 +50488,7 @@
   <dimension ref="A1:AE206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AE206"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -69388,7 +70412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B10:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
